--- a/BCSungjin/evidence.xlsx
+++ b/BCSungjin/evidence.xlsx
@@ -136,7 +136,7 @@
     <t>Zeronode#2209</t>
   </si>
   <si>
-    <t>none</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,6 +230,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +600,7 @@
       <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/BCSungjin/evidence.xlsx
+++ b/BCSungjin/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -73,22 +73,49 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
+    <t>0C9E50C4418196E24D9A49B6985140EE713336DD8AA48937C5EC472CB2329539</t>
+  </si>
+  <si>
+    <t>ibc/CBF033AAC9F6CD6D56BA5C6779ADE9D2186A97BF8861F4DFA4DDE9F8A0BE443B</t>
+  </si>
+  <si>
+    <t>nftrune2</t>
+  </si>
+  <si>
+    <t>uptick</t>
+  </si>
+  <si>
+    <t>BFA4CF05513055CACDBDE3549C4731C9CB4C8F496A0CF0D6D8E54EF37277A5E3</t>
+  </si>
+  <si>
+    <t>stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh</t>
+  </si>
+  <si>
+    <t>nftrune</t>
+  </si>
+  <si>
+    <t>stargaze</t>
+  </si>
+  <si>
+    <t>3C43C11B93C4D17B238159E65CC44CE3052916E62734784BBB8A85D02DFD8B3B</t>
+  </si>
+  <si>
+    <t>F204A60CF9BCAFEF583B46FA9709392999AC618BD372B9AACD93E336725C7A6B</t>
+  </si>
+  <si>
+    <t>stars1tnu6msyzdppvjym7uew6n69tg77pdrcyww5ppv6ymkn0l5wu26hq0t7hx5</t>
+  </si>
+  <si>
+    <t>1. 5D78A74E013013846A9F547561FB00920267FB263B8DCBFDAE87C95BB06E9CDF, 2.2961BF0C5D51939B42EABE78022E299537882B9286DC002459FF0F4C27A7E2AE</t>
+  </si>
+  <si>
+    <t>runeterra</t>
+  </si>
+  <si>
+    <t>nftrune, nftrune2</t>
+  </si>
+  <si>
+    <t>D7C272323BBEAEE0B1F4207EC7BF31B4CE65A9EE3EF77593662C709EA5EB8E76</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -134,9 +161,6 @@
   </si>
   <si>
     <t>Zeronode#2209</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -211,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,9 +254,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +559,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,55 +575,53 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1066,10 +1085,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1339,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="97.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
@@ -1338,13 +1357,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1385,16 +1404,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1435,16 +1454,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1485,16 +1504,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1528,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1538,13 +1557,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BCSungjin/evidence.xlsx
+++ b/BCSungjin/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>TxHash</t>
   </si>
@@ -52,13 +52,127 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>63428F201BBB7EBCB76DD9B01B9AAC75D7B9454C1173EBF0C753836990FF3159</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>E0205581556865EE1A9C229DB70A5E930A034FDD4CF2965DBE8930F9F23A3186</t>
+  </si>
+  <si>
+    <t>uptick</t>
+  </si>
+  <si>
+    <t>872F70CB4A48D8A3957D518FF1E7DC826FC2FC9C142C87BF9CC18C607B61D039</t>
+  </si>
+  <si>
+    <t>stargaze</t>
+  </si>
+  <si>
+    <t>6479081D252A3E452C3AAF2F45056D6CD2EADC61D3E8DAA9B580E0668547B2AF</t>
+  </si>
+  <si>
+    <t>omniflix</t>
+  </si>
+  <si>
+    <t>CA3693A6E4DFA5848099B6B92DD202D5CBBE92116B35099CDBA21542E13EE488</t>
+  </si>
+  <si>
+    <t>3C164716D750AD0E82210D8E7211597972EF2D51505E56B0C2AABECB4C99C512</t>
+  </si>
+  <si>
+    <t>25114605BEA9E315EC0BF3845F0731079871B9594598EA055D4DB6A9189489F2</t>
+  </si>
+  <si>
+    <t>EEE2FEAF9984E83058BBE1E4397539FF7D6BF5908F2BA1FDBE3DF625F28CFBBC</t>
+  </si>
+  <si>
+    <t>F08F4A9F2750833426E77B1B0AF15E7E27FDE052D68DB695E35F2C678515ADF4</t>
+  </si>
+  <si>
+    <t>juno</t>
+  </si>
+  <si>
+    <t>B3A4E0D05AF13975B9F533DEF4C96D6D3DA203BF5DF9F0E6EE9FDFCD5680D37C</t>
+  </si>
+  <si>
+    <t>EF6AF490AFDF62CF9A63A5C0F384D21708E0F70D5FED5420A0030899A8B7D4CA</t>
+  </si>
+  <si>
+    <t>4850F73A7F522BBA0E2DE19BF7CB649D3A04DEB0FCFA47B1A3B100227F40E496</t>
+  </si>
+  <si>
+    <t>C2857767D61E85693E354BE6326D463446D2B9B5E5EE18E587F53B75475DBA83</t>
+  </si>
+  <si>
+    <t>04614021CCC2A5A3DCB67A130CC06CEEC0FB5BC2164D653897844F344B049FE7</t>
+  </si>
+  <si>
+    <t>E21658725D6860845F08AC1041459266D61855EA9FD38A34DA84469D637D1AE8</t>
+  </si>
+  <si>
+    <t>6DDCE95B193838388A5D933CB78D6D47D84B89E370C18FCB6266431C25CD2299</t>
+  </si>
+  <si>
+    <t>846D9ACAF34CE3DC7C25987600C9F9581C3DCE7F3F838CFE12A7B95B58B35D69</t>
+  </si>
+  <si>
+    <t>71BCFF3194341B7AC488B8983C33A362CD7C456FE63C319B3054B01EB2642DE3</t>
+  </si>
+  <si>
+    <t>D23E58A6DB74C32754D97D12C99C293F0B98C1794AC911AF9F29C1879B32A937</t>
+  </si>
+  <si>
+    <t>AAC31DD159066CFEC05144C3F1E43A2E363634F1C9DA1045A18507D466E965E7</t>
+  </si>
+  <si>
+    <t>B9E10053979529417D6634B468A2146BEEF5E26A302D0052B0B062D925CC47A2</t>
+  </si>
+  <si>
+    <t>58FFE19F40307102D2D1C34273DAD3E8BF3A830527FC59BC7C068F229847366A</t>
+  </si>
+  <si>
+    <t>DF666C9A93497AC7531873B51059B6D61A3E1DF3BC86B5BF49C285FE8DCD3434</t>
+  </si>
+  <si>
+    <t>7A59DD2D74CE7F91368FBCB80B4EB0801E8D5E266B83495D4B0BD21346CC36B2</t>
+  </si>
+  <si>
+    <t>BB9C7F52ECA341FF8F165685FB260B057471B9E9162D8BA747C448859319DD15</t>
+  </si>
+  <si>
+    <t>EBFB47CEC5B9457C6B5F140B8B63710665500D304C95DEDE0095A77B9D1CD58A</t>
+  </si>
+  <si>
+    <t>02B85A601E38B26B068D5D428849D8681C4458636C76EF9D20E50619EB761CFF</t>
+  </si>
+  <si>
+    <t>19A4C94B62BC2325DF84509EFBFBD453192C3FC1DC8BE85AA2068A659384948C</t>
+  </si>
+  <si>
+    <t>D88CEC356FF0230BF0679F24BC68967F9A46143C09338AE0A6884ED646FB577B</t>
+  </si>
+  <si>
+    <t>F425C85B65563209D421EA0611A2E756FC83F3F04C032B969086A285CA35D675</t>
+  </si>
+  <si>
+    <t>860A4B82A64852A5003E79575BAACADCBD23905304F65E57FD53FA532B92B22C</t>
+  </si>
+  <si>
+    <t>0D748684FABCAC9E684AB99E8C64AC9174ACDDDBBD5CE5DABCA56DEB4FA6B480</t>
+  </si>
+  <si>
+    <t>AC5940BE5FC0F9A48A63B103062CC84EDCE79F2B6AC5780B20E34423A3D378FE</t>
+  </si>
+  <si>
+    <t>39B15997D405F1B2D05B41727E1A09C039F0A840E5745AE38591425B399DA8BE</t>
+  </si>
+  <si>
+    <t>B1D9E944C78C6586EFC9A0BA2809150F0CE2E7D436F9B50DFEB5061E76EB36D9</t>
+  </si>
+  <si>
+    <t>3D3859CB32A63DEA3E54F6338F15F3B49224F5A07CBC37718648ED36E0EBDA81</t>
   </si>
   <si>
     <t>ClassID</t>
@@ -67,10 +181,40 @@
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
+    <t>ibc/953490755C9674298AE4104B7F2C3468FFDE7EC0219D5D4B9B1FC84A2D72A27C</t>
+  </si>
+  <si>
+    <t>nftruneA12</t>
+  </si>
+  <si>
+    <t>ibc/C809B07A34A4F8B498CF8542CD0F3E1949FE30F09D97B3C91B81FA1CC7D277D7</t>
+  </si>
+  <si>
+    <t>nftruneA11</t>
+  </si>
+  <si>
+    <t>ibc/DC35C5EAF258C1E241231C4B9884E672C5206E99B23F89A17807079CBFB72862</t>
+  </si>
+  <si>
+    <t>nftruneA10</t>
+  </si>
+  <si>
+    <t>ibc/5CFB443BBF3CE78A936C6712ED81DCF4CFB5FD4F3AC33E30F3B1112A098CD1CB</t>
+  </si>
+  <si>
+    <t>nftruneA9</t>
+  </si>
+  <si>
+    <t>ibc/2D361FD16EF1412DDDAC4DA74B4FFFB001823F9CC39D508785C77E3E0A66FF4C</t>
+  </si>
+  <si>
+    <t>runeterraA8</t>
+  </si>
+  <si>
+    <t>ibc/3820B67D2A72DA85D7EB200398BCFE1E46C9ADB6A7EBA527B0C74F1BAF541B25</t>
+  </si>
+  <si>
+    <t>nftrune</t>
   </si>
   <si>
     <t>0C9E50C4418196E24D9A49B6985140EE713336DD8AA48937C5EC472CB2329539</t>
@@ -82,19 +226,10 @@
     <t>nftrune2</t>
   </si>
   <si>
-    <t>uptick</t>
-  </si>
-  <si>
     <t>BFA4CF05513055CACDBDE3549C4731C9CB4C8F496A0CF0D6D8E54EF37277A5E3</t>
   </si>
   <si>
     <t>stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh</t>
-  </si>
-  <si>
-    <t>nftrune</t>
-  </si>
-  <si>
-    <t>stargaze</t>
   </si>
   <si>
     <t>3C43C11B93C4D17B238159E65CC44CE3052916E62734784BBB8A85D02DFD8B3B</t>
@@ -235,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,6 +383,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -570,56 +708,56 @@
     <col min="5" max="5" style="3" width="18.14785714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>40</v>
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -645,18 +783,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -681,18 +819,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -717,26 +855,422 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="9.719285714285713" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -747,44 +1281,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -807,385 +1417,41 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1349,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1404,16 +1670,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1443,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1454,16 +1720,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1493,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1504,16 +1770,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1794,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1543,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1554,16 +1820,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1588,18 +1854,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1624,18 +1890,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/BCSungjin/evidence.xlsx
+++ b/BCSungjin/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>TxHash</t>
   </si>
@@ -55,25 +55,25 @@
     <t>63428F201BBB7EBCB76DD9B01B9AAC75D7B9454C1173EBF0C753836990FF3159</t>
   </si>
   <si>
-    <t>iris</t>
+    <t>gon-irishub-1</t>
   </si>
   <si>
     <t>E0205581556865EE1A9C229DB70A5E930A034FDD4CF2965DBE8930F9F23A3186</t>
   </si>
   <si>
-    <t>uptick</t>
+    <t>uptick_7000-2</t>
   </si>
   <si>
     <t>872F70CB4A48D8A3957D518FF1E7DC826FC2FC9C142C87BF9CC18C607B61D039</t>
   </si>
   <si>
-    <t>stargaze</t>
+    <t>elgafar-1</t>
   </si>
   <si>
     <t>6479081D252A3E452C3AAF2F45056D6CD2EADC61D3E8DAA9B580E0668547B2AF</t>
   </si>
   <si>
-    <t>omniflix</t>
+    <t>gon-flixnet-1</t>
   </si>
   <si>
     <t>CA3693A6E4DFA5848099B6B92DD202D5CBBE92116B35099CDBA21542E13EE488</t>
@@ -91,7 +91,7 @@
     <t>F08F4A9F2750833426E77B1B0AF15E7E27FDE052D68DB695E35F2C678515ADF4</t>
   </si>
   <si>
-    <t>juno</t>
+    <t>uni-6</t>
   </si>
   <si>
     <t>B3A4E0D05AF13975B9F533DEF4C96D6D3DA203BF5DF9F0E6EE9FDFCD5680D37C</t>
@@ -217,37 +217,37 @@
     <t>nftrune</t>
   </si>
   <si>
-    <t>0C9E50C4418196E24D9A49B6985140EE713336DD8AA48937C5EC472CB2329539</t>
+    <t>4C1F882C0E490E4B35BF104FFE64EF255D86417C930AD5EC16795564D45589ED</t>
   </si>
   <si>
     <t>ibc/CBF033AAC9F6CD6D56BA5C6779ADE9D2186A97BF8861F4DFA4DDE9F8A0BE443B</t>
   </si>
   <si>
-    <t>nftrune2</t>
-  </si>
-  <si>
-    <t>BFA4CF05513055CACDBDE3549C4731C9CB4C8F496A0CF0D6D8E54EF37277A5E3</t>
-  </si>
-  <si>
-    <t>stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh</t>
-  </si>
-  <si>
-    <t>3C43C11B93C4D17B238159E65CC44CE3052916E62734784BBB8A85D02DFD8B3B</t>
-  </si>
-  <si>
-    <t>F204A60CF9BCAFEF583B46FA9709392999AC618BD372B9AACD93E336725C7A6B</t>
+    <t>nnnftruneA4</t>
+  </si>
+  <si>
+    <t>F1C648889CE252A9CD2EDF9FC8162F5F9D8C5F77EFAE4277E14B386820FD674C</t>
   </si>
   <si>
     <t>stars1tnu6msyzdppvjym7uew6n69tg77pdrcyww5ppv6ymkn0l5wu26hq0t7hx5</t>
   </si>
   <si>
-    <t>1. 5D78A74E013013846A9F547561FB00920267FB263B8DCBFDAE87C95BB06E9CDF, 2.2961BF0C5D51939B42EABE78022E299537882B9286DC002459FF0F4C27A7E2AE</t>
+    <t>nnnftruneA3</t>
+  </si>
+  <si>
+    <t>11051C011690C9F9371739295F794A9F75F384AE6F003FB1043090F446981BF3</t>
+  </si>
+  <si>
+    <t>78A816372C0A34907D0004F190D0979914289E685EE25D3CB79E74DBE06CC0D5</t>
+  </si>
+  <si>
+    <t>034F5E21954632016AD2A297E7B8578F8153C1451E6A10A885779AC1A77A912A</t>
   </si>
   <si>
     <t>runeterra</t>
   </si>
   <si>
-    <t>nftrune, nftrune2</t>
+    <t>9ED64C8F9482791DA5EA2438C1BD89841039E6FB30501B9CB96ECC04C1F8AB4E</t>
   </si>
   <si>
     <t>D7C272323BBEAEE0B1F4207EC7BF31B4CE65A9EE3EF77593662C709EA5EB8E76</t>
@@ -303,7 +303,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -384,7 +390,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -885,7 +891,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="87.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -921,8 +927,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="84.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -982,7 +988,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1042,7 +1048,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1102,7 +1108,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1162,7 +1168,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1222,7 +1228,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="83.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1318,7 +1324,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1389,12 +1395,12 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="83.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1599,18 +1605,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="97.005" customWidth="1" bestFit="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="84.14785714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <col min="3" max="3" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,8 +1635,19 @@
         <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,7 +1666,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="75.14785714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
@@ -1670,13 +1687,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1699,12 +1716,62 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="89.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="15.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="75.14785714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,9 +1785,59 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="15.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>60</v>
@@ -1737,106 +1854,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1880,12 +1897,12 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">

--- a/BCSungjin/evidence.xlsx
+++ b/BCSungjin/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>TxHash</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
+  </si>
+  <si>
+    <t>56DA2318BEB0EEECD3AD3417043C3E42D0F36FB642978ADFF0997A000555A478</t>
+  </si>
+  <si>
+    <t>B93384F448A8A78FF622052132D80088BFE502A52CD4D77F6480CDFEA352DACB</t>
+  </si>
+  <si>
+    <t>18D4EF71AFD796892AE98E2C7BEBF269C4B881F1A2E18FFFE4F261B9248B835D</t>
+  </si>
+  <si>
+    <t>75DF57E16794FA3B0E40634C8225B6B9D35E63CDD8E5F7DCC98566130CD1E5FF</t>
   </si>
   <si>
     <t>ChainID</t>
@@ -319,7 +331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -719,51 +731,51 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -789,10 +801,82 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -808,7 +892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -819,16 +903,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="87.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -844,78 +928,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="87.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -936,7 +948,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -944,7 +1016,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
@@ -952,15 +1024,15 @@
         <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -968,15 +1040,15 @@
         <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -996,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1004,7 +1076,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
@@ -1012,7 +1084,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
@@ -1028,43 +1100,43 @@
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
@@ -1072,15 +1144,15 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -1088,15 +1160,15 @@
         <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1107,7 +1179,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -1116,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1124,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
@@ -1132,7 +1204,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
@@ -1140,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -1148,15 +1220,15 @@
         <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1167,8 +1239,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="83.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1176,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1184,7 +1256,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
@@ -1192,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
@@ -1200,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -1208,48 +1280,160 @@
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="83.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="83.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -1257,165 +1441,62 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="83.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="41.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.4">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1423,54 +1504,53 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="41.005" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.4">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1532,74 +1612,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1621,32 +1633,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1671,32 +1683,32 @@
     <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1726,27 +1738,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1776,27 +1788,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1826,13 +1838,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1842,84 +1932,6 @@
       <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BCSungjin/evidence.xlsx
+++ b/BCSungjin/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="22"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -163,16 +163,16 @@
     <t>19A4C94B62BC2325DF84509EFBFBD453192C3FC1DC8BE85AA2068A659384948C</t>
   </si>
   <si>
-    <t>D88CEC356FF0230BF0679F24BC68967F9A46143C09338AE0A6884ED646FB577B</t>
-  </si>
-  <si>
-    <t>F425C85B65563209D421EA0611A2E756FC83F3F04C032B969086A285CA35D675</t>
-  </si>
-  <si>
-    <t>860A4B82A64852A5003E79575BAACADCBD23905304F65E57FD53FA532B92B22C</t>
-  </si>
-  <si>
-    <t>0D748684FABCAC9E684AB99E8C64AC9174ACDDDBBD5CE5DABCA56DEB4FA6B480</t>
+    <t>0DB75A9AED6636215B9B3AACFC31C06FE0AAD414AA7E2E334D73CC1EA4539B4B</t>
+  </si>
+  <si>
+    <t>C705A790888849FB60F5CC4DD8D10A4E0CB00E5299F651A5454B8779C1CA77A1</t>
+  </si>
+  <si>
+    <t>D5C48ADC5CB1981553457D9772AE7E459DD75738F3ADC388D28CAE6EED699121</t>
+  </si>
+  <si>
+    <t>2B0FD49570308D3056A6B054688DE1E4144B16A958CDB3EE477C26037147E56D</t>
   </si>
   <si>
     <t>AC5940BE5FC0F9A48A63B103062CC84EDCE79F2B6AC5780B20E34423A3D378FE</t>
@@ -220,7 +220,7 @@
     <t>ibc/2D361FD16EF1412DDDAC4DA74B4FFFB001823F9CC39D508785C77E3E0A66FF4C</t>
   </si>
   <si>
-    <t>runeterraA8</t>
+    <t>nnftruneA8</t>
   </si>
   <si>
     <t>ibc/3820B67D2A72DA85D7EB200398BCFE1E46C9ADB6A7EBA527B0C74F1BAF541B25</t>
@@ -995,7 +995,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1517,24 +1517,24 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="41.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>

--- a/BCSungjin/evidence.xlsx
+++ b/BCSungjin/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -32,21 +32,34 @@
     <sheet r:id="rId23" sheetId="23" name="B2"/>
     <sheet r:id="rId24" sheetId="24" name="B5"/>
     <sheet r:id="rId25" sheetId="25" name="B6"/>
+    <sheet r:id="rId26" sheetId="26" name="B7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>E7AF5020E396783115C4C57B8FB49EF7548615FF53F1A4AEE97ECBC344F238B2</t>
+  </si>
+  <si>
+    <t>9A804766CB4B85BB519383D8A4D07E0938A4383D3ECDF2AFD3717867180E0FD4</t>
+  </si>
+  <si>
+    <t>1056FA4E897BBA99BE32BB6DE78770B52A7F6EEC90CBA5DD859C900DAFD3E877</t>
+  </si>
+  <si>
+    <t>E4CF0C9F05EA98A1F00C5CB7CA237F994139F01A5FD62E387EAF4AD87805754F</t>
+  </si>
+  <si>
+    <t>B4BBBAA7C6002F08479A78F918B04CE5BFF8BB4FDC8DFFDBF6B09E50DF0FD5C3</t>
+  </si>
+  <si>
+    <t>46FBB3BF30582D759343A5DC63FF29DCE043B8FFBD71487EF56E71ECF438B00F</t>
   </si>
   <si>
     <t>56DA2318BEB0EEECD3AD3417043C3E42D0F36FB642978ADFF0997A000555A478</t>
@@ -397,6 +410,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -404,9 +420,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -719,65 +732,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,16 +808,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -820,7 +905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -831,16 +916,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="87.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -856,182 +941,170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="84.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="87.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="84.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1039,76 +1112,76 @@
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="83.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1119,8 +1192,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="83.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="85.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1128,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1136,39 +1209,39 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1179,8 +1252,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="83.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1188,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1196,238 +1269,247 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="85.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="83.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="85.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="83.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="83.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="41.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.4">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1435,48 +1517,13 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1487,7 +1534,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="41.005" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="41.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1495,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.4">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1521,7 +1602,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="41.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1544,394 +1625,360 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="41.005" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="84.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="75.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="89.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="84.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="75.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="75.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="89.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="15.43357142857143" customWidth="1" bestFit="1"/>
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="75.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="54.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="15.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
